--- a/inventory list.xlsx
+++ b/inventory list.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20225"/>
   <workbookPr showInkAnnotation="0" checkCompatibility="1" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NIKHIL\PycharmProjects\Nikhil\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14180" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet4 (2)" sheetId="5" r:id="rId1"/>
@@ -17,7 +12,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sheet4 (2)'!$A$1:$F$7</definedName>
   </definedNames>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="445">
   <si>
     <t>Sr. No.</t>
   </si>
@@ -38,9 +33,6 @@
     <t>No.s</t>
   </si>
   <si>
-    <t xml:space="preserve">तुअर दाल </t>
-  </si>
-  <si>
     <t>Item Hindi</t>
   </si>
   <si>
@@ -122,27 +114,12 @@
     <t>moredhan</t>
   </si>
   <si>
-    <t>rajgeera floor</t>
-  </si>
-  <si>
-    <t>singath floor</t>
-  </si>
-  <si>
-    <t>daane</t>
-  </si>
-  <si>
     <t>Almond</t>
   </si>
   <si>
-    <t>kismis</t>
-  </si>
-  <si>
     <t>charoli</t>
   </si>
   <si>
-    <t>ilaichi</t>
-  </si>
-  <si>
     <t>anjeer</t>
   </si>
   <si>
@@ -200,9 +177,6 @@
     <t>matchbox</t>
   </si>
   <si>
-    <t>kapoor</t>
-  </si>
-  <si>
     <t>Khada Anaaj</t>
   </si>
   <si>
@@ -341,18 +315,12 @@
     <t xml:space="preserve">शैम्पू </t>
   </si>
   <si>
-    <t xml:space="preserve">हेयर आयल </t>
-  </si>
-  <si>
     <t>साबुन ( कपडे धोने का )</t>
   </si>
   <si>
     <t>साबुन ( बर्तन धोने का )</t>
   </si>
   <si>
-    <t>साबुन ( नहाने का )</t>
-  </si>
-  <si>
     <t xml:space="preserve">डिटर्जेंट पाउडर </t>
   </si>
   <si>
@@ -365,12 +333,6 @@
     <t xml:space="preserve">मोरधन </t>
   </si>
   <si>
-    <t xml:space="preserve">राजगीरा आटा </t>
-  </si>
-  <si>
-    <t xml:space="preserve">सिंगाठा आता </t>
-  </si>
-  <si>
     <t xml:space="preserve">दाने </t>
   </si>
   <si>
@@ -485,9 +447,6 @@
     <t xml:space="preserve">बाफला आटा </t>
   </si>
   <si>
-    <t xml:space="preserve">मक्का आटा </t>
-  </si>
-  <si>
     <t xml:space="preserve">इडली </t>
   </si>
   <si>
@@ -569,9 +528,6 @@
     <t>detergentpowder.jpg</t>
   </si>
   <si>
-    <t>biscuit.jpg</t>
-  </si>
-  <si>
     <t>rusk.jpg</t>
   </si>
   <si>
@@ -620,9 +576,6 @@
     <t>toordal.jpg</t>
   </si>
   <si>
-    <t>chanadal.jpg</t>
-  </si>
-  <si>
     <t>moongdal.jpg</t>
   </si>
   <si>
@@ -710,15 +663,9 @@
     <t>makkaatta.jpg</t>
   </si>
   <si>
-    <t>idlimix.jpg</t>
-  </si>
-  <si>
     <t>khaman.jpg</t>
   </si>
   <si>
-    <t>bhajiamix.jpg</t>
-  </si>
-  <si>
     <t>dahivada.jpg</t>
   </si>
   <si>
@@ -788,14 +735,940 @@
     <t>नारियल</t>
   </si>
   <si>
-    <t>Sub_items</t>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>तुअर</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>दाल</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>हेयर</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>आयल</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>साबुन</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ( </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>नहाने</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>का</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> )</t>
+    </r>
+  </si>
+  <si>
+    <t>Sabudaana</t>
+  </si>
+  <si>
+    <t>Methidaana</t>
+  </si>
+  <si>
+    <t>Chilli powder</t>
+  </si>
+  <si>
+    <t>haldi</t>
+  </si>
+  <si>
+    <t>dhaniya</t>
+  </si>
+  <si>
+    <t>rai</t>
+  </si>
+  <si>
+    <t>ajwain</t>
+  </si>
+  <si>
+    <t>saunf moti</t>
+  </si>
+  <si>
+    <t>Saunf Barik</t>
+  </si>
+  <si>
+    <t>garam masala</t>
+  </si>
+  <si>
+    <t>khada dhaniya</t>
+  </si>
+  <si>
+    <t>jeera van</t>
+  </si>
+  <si>
+    <t>amchur</t>
+  </si>
+  <si>
+    <t>laung</t>
+  </si>
+  <si>
+    <t>heeng</t>
+  </si>
+  <si>
+    <t>Tilli</t>
+  </si>
+  <si>
+    <t>magaj</t>
+  </si>
+  <si>
+    <t>khada masala</t>
+  </si>
+  <si>
+    <t>Khopra Khada</t>
+  </si>
+  <si>
+    <t>Khopra Bhura</t>
+  </si>
+  <si>
+    <t>Kaaju</t>
+  </si>
+  <si>
+    <t>Tags</t>
+  </si>
+  <si>
+    <t>Salt, Namak</t>
+  </si>
+  <si>
+    <t>Sugar, shakkar</t>
+  </si>
+  <si>
+    <t>Tea, Chai, chaipatti</t>
+  </si>
+  <si>
+    <t>gond</t>
+  </si>
+  <si>
+    <t>Mosquito spry (Hit)</t>
+  </si>
+  <si>
+    <t>Mosquito repelent</t>
+  </si>
+  <si>
+    <t>Misri</t>
+  </si>
+  <si>
+    <t>Moong Badi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health Drink </t>
+  </si>
+  <si>
+    <t>Soya badi</t>
+  </si>
+  <si>
+    <t>Spices</t>
+  </si>
+  <si>
+    <t>makhane</t>
+  </si>
+  <si>
+    <t>Oil, Tel, tail</t>
+  </si>
+  <si>
+    <t>Baby Lotion</t>
+  </si>
+  <si>
+    <t>Baby Powder</t>
+  </si>
+  <si>
+    <t>Baby Soap</t>
+  </si>
+  <si>
+    <t>MosquitoesSpray.jpg</t>
+  </si>
+  <si>
+    <t>bhajiamix.png</t>
+  </si>
+  <si>
+    <t>biscuit.jpeg</t>
+  </si>
+  <si>
+    <t>Chanadal.jpg</t>
+  </si>
+  <si>
+    <t>idlimix.png</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>मक्का</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>आटा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>wheat floor</t>
+  </si>
+  <si>
+    <t>wheatflour.jpg</t>
+  </si>
+  <si>
+    <t>jaggery.jpg</t>
+  </si>
+  <si>
+    <t>misri.png</t>
+  </si>
+  <si>
+    <t>soyabadi.jpg</t>
+  </si>
+  <si>
+    <t>moongbadi.jpg</t>
+  </si>
+  <si>
+    <t>methidana.jpg</t>
+  </si>
+  <si>
+    <t>chillipowder.jpg</t>
+  </si>
+  <si>
+    <t>turmericpowder.jpg</t>
+  </si>
+  <si>
+    <t>dhaniyapowder.jpg</t>
+  </si>
+  <si>
+    <t>raiee.jpg</t>
+  </si>
+  <si>
+    <t>Cumin</t>
+  </si>
+  <si>
+    <t>jeera.jpg</t>
+  </si>
+  <si>
+    <t>ajwain.jpg</t>
+  </si>
+  <si>
+    <t>saunf.jpg</t>
+  </si>
+  <si>
+    <t>saunfmoti.jpg</t>
+  </si>
+  <si>
+    <t>garammasala.jpg</t>
+  </si>
+  <si>
+    <t>khadadhaniya.jpg</t>
+  </si>
+  <si>
+    <t>jeeravan.jpg</t>
+  </si>
+  <si>
+    <t>amchurpowder.jpg</t>
+  </si>
+  <si>
+    <t>laung.jpg</t>
+  </si>
+  <si>
+    <t>hing.jpg</t>
+  </si>
+  <si>
+    <t>khadamasala.jpeg</t>
+  </si>
+  <si>
+    <t>mosquitorepellent.jpg</t>
+  </si>
+  <si>
+    <t>Baby Shampoo</t>
+  </si>
+  <si>
+    <t>Baby Bodywash</t>
+  </si>
+  <si>
+    <t>babysoap.jpg</t>
+  </si>
+  <si>
+    <t>babylotion.jpeg</t>
+  </si>
+  <si>
+    <t>babypowder.jpg</t>
+  </si>
+  <si>
+    <t>babybodywash.jpg</t>
+  </si>
+  <si>
+    <t>babyshampoo.jpg</t>
+  </si>
+  <si>
+    <t>jhadu.jpg</t>
+  </si>
+  <si>
+    <t>healthdrink.jpg</t>
+  </si>
+  <si>
+    <t>Fariyali aata</t>
+  </si>
+  <si>
+    <t>fariyaliatta.jpg</t>
+  </si>
+  <si>
+    <t>sendhanamak.jpg</t>
+  </si>
+  <si>
+    <t>khopra.jpg</t>
+  </si>
+  <si>
+    <t>coconutpowder.jpg</t>
+  </si>
+  <si>
+    <t>kaaju.jpg</t>
+  </si>
+  <si>
+    <t>makhane.jpg</t>
+  </si>
+  <si>
+    <t>gond.jpg</t>
+  </si>
+  <si>
+    <t>tilli.jpg</t>
+  </si>
+  <si>
+    <t>magaj.jpg</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>मॉस्क्वीटो</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>स्प्रे</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>मचछर</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>रोधक</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t>साबुन ( बच्चो के लिए )</t>
+  </si>
+  <si>
+    <t>लोशन  ( बच्चो के लिए )</t>
+  </si>
+  <si>
+    <t>पाउडर   ( बच्चो के लिए )</t>
+  </si>
+  <si>
+    <t>बॉडीवॉश   ( बच्चो के लिए )</t>
+  </si>
+  <si>
+    <t>शैम्पू   ( बच्चो के लिए )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">झाड़ू </t>
+  </si>
+  <si>
+    <t xml:space="preserve">हेल्थ ड्रिंक </t>
+  </si>
+  <si>
+    <t xml:space="preserve">फरियाली आटा </t>
+  </si>
+  <si>
+    <t xml:space="preserve">सेंधा नमक </t>
+  </si>
+  <si>
+    <t xml:space="preserve">खोपरा खड़ा </t>
+  </si>
+  <si>
+    <t xml:space="preserve">खोपरा भूरा </t>
+  </si>
+  <si>
+    <t xml:space="preserve">काजू </t>
+  </si>
+  <si>
+    <t xml:space="preserve">मखाने </t>
+  </si>
+  <si>
+    <t>गोंद</t>
+  </si>
+  <si>
+    <t>तिल्ली</t>
+  </si>
+  <si>
+    <t>मगज</t>
+  </si>
+  <si>
+    <t>मसाले</t>
+  </si>
+  <si>
+    <t>गेहू आटा</t>
+  </si>
+  <si>
+    <t>गुड़</t>
+  </si>
+  <si>
+    <t>मिश्री</t>
+  </si>
+  <si>
+    <t>सोया बड़ी</t>
+  </si>
+  <si>
+    <t>मूंग बङी</t>
+  </si>
+  <si>
+    <t>मेथी दाना</t>
+  </si>
+  <si>
+    <t>चिली पाउडर</t>
+  </si>
+  <si>
+    <t>हल्दी</t>
+  </si>
+  <si>
+    <t>धनिया</t>
+  </si>
+  <si>
+    <t>राई</t>
+  </si>
+  <si>
+    <t>जीरा</t>
+  </si>
+  <si>
+    <t>अजवाइन</t>
+  </si>
+  <si>
+    <t>सौंफ मोटी</t>
+  </si>
+  <si>
+    <t>सौंफ बारीक़</t>
+  </si>
+  <si>
+    <t>गरम मसाला</t>
+  </si>
+  <si>
+    <t>खड़ा धनियाँ</t>
+  </si>
+  <si>
+    <t>जीरा वन</t>
+  </si>
+  <si>
+    <t>अमचूर</t>
+  </si>
+  <si>
+    <t>लौंग</t>
+  </si>
+  <si>
+    <t>हिंग</t>
+  </si>
+  <si>
+    <t>खड़ा मसाला</t>
+  </si>
+  <si>
+    <t>desi ghee</t>
+  </si>
+  <si>
+    <t>dalda ghee</t>
+  </si>
+  <si>
+    <t>toothpaste, manjan</t>
+  </si>
+  <si>
+    <t>toothbrush, brush</t>
+  </si>
+  <si>
+    <t>facecream, cream</t>
+  </si>
+  <si>
+    <t>hair oil, tel, tail</t>
+  </si>
+  <si>
+    <t>detergent soap, sabun, kapde</t>
+  </si>
+  <si>
+    <t>Washing soap, sabun, bartan</t>
+  </si>
+  <si>
+    <t>Bathing soap, sabun, nahane</t>
+  </si>
+  <si>
+    <t>Detergent powder, kapde</t>
+  </si>
+  <si>
+    <t>toast, tose, rusk</t>
+  </si>
+  <si>
+    <t>Mosquito spry, Hit, machchar</t>
+  </si>
+  <si>
+    <t>Mosquito repelent, allout, goodnight, coil, machchar</t>
+  </si>
+  <si>
+    <t>Baby Soap, sabun</t>
+  </si>
+  <si>
+    <t>Baby Lotion, moisturizer</t>
+  </si>
+  <si>
+    <t>body lotion, moisturizer</t>
+  </si>
+  <si>
+    <t>Baby Powder, talc</t>
+  </si>
+  <si>
+    <t>Broom</t>
+  </si>
+  <si>
+    <t>Jhaadu, broom</t>
+  </si>
+  <si>
+    <t>Health Drink, horlicks, bornvita</t>
+  </si>
+  <si>
+    <t>rajgeera flour, aata</t>
+  </si>
+  <si>
+    <t>singath flour, aata</t>
+  </si>
+  <si>
+    <t>rajgeera flour</t>
+  </si>
+  <si>
+    <t>singath flour</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>राजगीरा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>आटा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t>सिंगाठा</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Shree Devanagari 714"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">आटा </t>
+    </r>
+  </si>
+  <si>
+    <t>sendha namak</t>
+  </si>
+  <si>
+    <t>sengha namak, salt</t>
+  </si>
+  <si>
+    <t>Almond, badaam</t>
+  </si>
+  <si>
+    <t>kismis, raisin</t>
+  </si>
+  <si>
+    <t>raisin</t>
+  </si>
+  <si>
+    <t>ilaichi, cardamom</t>
+  </si>
+  <si>
+    <t>cardamom</t>
+  </si>
+  <si>
+    <t>anjeer, fig</t>
+  </si>
+  <si>
+    <t>pista, pistacio</t>
+  </si>
+  <si>
+    <t>Khopra Khada, coconut</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khopra Bhura, coconut </t>
+  </si>
+  <si>
+    <t>makhane, fox nut</t>
+  </si>
+  <si>
+    <t>Kaaju, cashew nut</t>
+  </si>
+  <si>
+    <t>gond, gum</t>
+  </si>
+  <si>
+    <t>Tilli, sesame</t>
+  </si>
+  <si>
+    <t>magaj, watermelon seeds</t>
+  </si>
+  <si>
+    <t>toor, dal</t>
+  </si>
+  <si>
+    <t>chana, dal</t>
+  </si>
+  <si>
+    <t>moong, dal</t>
+  </si>
+  <si>
+    <t>moong mogar, dal</t>
+  </si>
+  <si>
+    <t>udad, dal</t>
+  </si>
+  <si>
+    <t>udad mogar, dal</t>
+  </si>
+  <si>
+    <t>baasmati, rice, chawal</t>
+  </si>
+  <si>
+    <t>parval, rice, chawal</t>
+  </si>
+  <si>
+    <t>poolav, rice, chawal</t>
+  </si>
+  <si>
+    <t>agarbatti, incense stick</t>
+  </si>
+  <si>
+    <t>matchbox. Matchis</t>
+  </si>
+  <si>
+    <t>kapoor, camphor</t>
+  </si>
+  <si>
+    <t>Camphor</t>
+  </si>
+  <si>
+    <t>Moong, anaaj</t>
+  </si>
+  <si>
+    <t>Desi chana, anaaj</t>
+  </si>
+  <si>
+    <t>kabali chana, anaaj</t>
+  </si>
+  <si>
+    <t>chawla, anaaj</t>
+  </si>
+  <si>
+    <t>masoor, anaaj</t>
+  </si>
+  <si>
+    <t>modh, anaaj</t>
+  </si>
+  <si>
+    <t>batla, anaaj</t>
+  </si>
+  <si>
+    <t>Udad, anaaj</t>
+  </si>
+  <si>
+    <t>rajma, beans</t>
+  </si>
+  <si>
+    <t>nariyal, coconut</t>
+  </si>
+  <si>
+    <t>sugar powder, shakkar, bhura</t>
+  </si>
+  <si>
+    <t>baafla flour</t>
+  </si>
+  <si>
+    <t>makka flour</t>
+  </si>
+  <si>
+    <t>maida, aata, flour</t>
+  </si>
+  <si>
+    <t>besan, aata, flour</t>
+  </si>
+  <si>
+    <t>thooli, dalia</t>
+  </si>
+  <si>
+    <t>wheat floor, aata, gehu</t>
+  </si>
+  <si>
+    <t>gud, jaggery</t>
+  </si>
+  <si>
+    <t>jaggery</t>
+  </si>
+  <si>
+    <t>Misri, sugar, mishri</t>
+  </si>
+  <si>
+    <t>Chilli powder, lal mirch</t>
+  </si>
+  <si>
+    <t>Cumin, jeera</t>
+  </si>
+  <si>
+    <t>Sub Category</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -857,8 +1730,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="53">
+  <cellStyleXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -917,7 +1818,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="53">
+  <cellStyles count="81">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -944,6 +1845,20 @@
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -970,18 +1885,24 @@
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1307,1773 +2228,3017 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H76"/>
+  <dimension ref="A1:I115"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="18.5" customWidth="1"/>
     <col min="3" max="3" width="16.5" customWidth="1"/>
-    <col min="4" max="4" width="19.125" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="4" max="4" width="19.1640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="21.33203125" customWidth="1"/>
+    <col min="8" max="8" width="44" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>261</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G2" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>153</v>
+      </c>
+      <c r="H2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>154</v>
+      </c>
+      <c r="H3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C4" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>155</v>
+      </c>
+      <c r="H4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G5" t="s">
+        <v>156</v>
+      </c>
+      <c r="H5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" t="s">
+        <v>226</v>
+      </c>
+      <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E5" t="s">
-        <v>95</v>
-      </c>
-      <c r="F5" t="s">
-        <v>7</v>
-      </c>
-      <c r="G5" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
-      </c>
-      <c r="C6" t="s">
-        <v>242</v>
-      </c>
-      <c r="D6" t="s">
-        <v>13</v>
-      </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>157</v>
+      </c>
+      <c r="H6" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C7" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E7" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="F7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G7" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>158</v>
+      </c>
+      <c r="H7" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C8" t="s">
+        <v>226</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" t="s">
         <v>91</v>
-      </c>
-      <c r="C8" t="s">
-        <v>242</v>
-      </c>
-      <c r="D8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
       </c>
       <c r="F8" t="s">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>222</v>
+      </c>
+      <c r="H8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C9" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
         <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>223</v>
+      </c>
+      <c r="H9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C10" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D10" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="E10" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="F10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G10" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>224</v>
+      </c>
+      <c r="H10" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C11" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E11" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="F11" t="s">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>166</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C12" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F12" t="s">
         <v>2</v>
       </c>
       <c r="G12" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>164</v>
+      </c>
+      <c r="H12" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C13" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="F13" t="s">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>163</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="19">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C14" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E14" t="s">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="F14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>162</v>
+      </c>
+      <c r="H14" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C15" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="F15" t="s">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>161</v>
+      </c>
+      <c r="H15" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C16" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="F16" t="s">
         <v>2</v>
       </c>
       <c r="G16" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+        <v>160</v>
+      </c>
+      <c r="H16" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C17" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E17" t="s">
-        <v>107</v>
+        <v>239</v>
       </c>
       <c r="F17" t="s">
         <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+        <v>165</v>
+      </c>
+      <c r="H17" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C18" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="F18" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <v>167</v>
+      </c>
+      <c r="H18" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C19" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F19" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G19" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+        <v>280</v>
+      </c>
+      <c r="H19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C20" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E20" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+        <v>168</v>
+      </c>
+      <c r="H20" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C21" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="F21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G21" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+        <v>169</v>
+      </c>
+      <c r="H21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C22" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D22" t="s">
-        <v>30</v>
+        <v>266</v>
       </c>
       <c r="E22" t="s">
-        <v>111</v>
+        <v>327</v>
       </c>
       <c r="F22" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>278</v>
+      </c>
+      <c r="H22" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C23" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D23" t="s">
-        <v>31</v>
+        <v>267</v>
       </c>
       <c r="E23" t="s">
-        <v>112</v>
+        <v>328</v>
       </c>
       <c r="F23" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G23" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>307</v>
+      </c>
+      <c r="H23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C24" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D24" t="s">
-        <v>32</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>113</v>
+        <v>329</v>
       </c>
       <c r="F24" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <v>310</v>
+      </c>
+      <c r="H24" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>29</v>
+        <v>84</v>
       </c>
       <c r="C25" t="s">
-        <v>243</v>
+        <v>226</v>
       </c>
       <c r="D25" t="s">
-        <v>33</v>
+        <v>275</v>
       </c>
       <c r="E25" t="s">
-        <v>114</v>
+        <v>330</v>
       </c>
       <c r="F25" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+        <v>311</v>
+      </c>
+      <c r="H25" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C26" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D26" t="s">
-        <v>34</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>115</v>
+        <v>331</v>
       </c>
       <c r="F26" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+        <v>312</v>
+      </c>
+      <c r="H26" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C27" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D27" t="s">
-        <v>35</v>
+        <v>309</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+        <v>313</v>
+      </c>
+      <c r="H27" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>244</v>
+        <v>226</v>
       </c>
       <c r="D28" t="s">
-        <v>36</v>
+        <v>308</v>
       </c>
       <c r="E28" t="s">
-        <v>117</v>
+        <v>333</v>
       </c>
       <c r="F28" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+        <v>314</v>
+      </c>
+      <c r="H28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" t="s">
+        <v>226</v>
+      </c>
+      <c r="D29" t="s">
+        <v>384</v>
+      </c>
+      <c r="E29" t="s">
+        <v>334</v>
+      </c>
+      <c r="F29" t="s">
+        <v>2</v>
+      </c>
+      <c r="G29" t="s">
+        <v>315</v>
+      </c>
+      <c r="H29" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30">
+        <v>30</v>
+      </c>
+      <c r="B30" t="s">
+        <v>84</v>
+      </c>
+      <c r="C30" t="s">
+        <v>226</v>
+      </c>
+      <c r="D30" t="s">
+        <v>270</v>
+      </c>
+      <c r="E30" t="s">
+        <v>335</v>
+      </c>
+      <c r="F30" t="s">
+        <v>2</v>
+      </c>
+      <c r="G30" t="s">
+        <v>316</v>
+      </c>
+      <c r="H30" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31">
+        <v>31</v>
+      </c>
+      <c r="B31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C31" t="s">
+        <v>227</v>
+      </c>
+      <c r="D31" t="s">
+        <v>29</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>170</v>
+      </c>
+      <c r="H31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19">
+      <c r="A32">
+        <v>32</v>
+      </c>
+      <c r="B32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" t="s">
+        <v>227</v>
+      </c>
+      <c r="D32" t="s">
+        <v>389</v>
+      </c>
+      <c r="E32" t="s">
+        <v>391</v>
+      </c>
+      <c r="F32" t="s">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H32" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="19">
+      <c r="A33">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>28</v>
+      </c>
+      <c r="C33" t="s">
+        <v>227</v>
+      </c>
+      <c r="D33" t="s">
+        <v>390</v>
+      </c>
+      <c r="E33" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" t="s">
+        <v>5</v>
+      </c>
+      <c r="G33" t="s">
+        <v>171</v>
+      </c>
+      <c r="H33" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
+      <c r="A34">
+        <v>34</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34" t="s">
+        <v>227</v>
+      </c>
+      <c r="D34" t="s">
+        <v>240</v>
+      </c>
+      <c r="E34" t="s">
+        <v>103</v>
+      </c>
+      <c r="F34" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" t="s">
+        <v>172</v>
+      </c>
+      <c r="H34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35">
+        <v>35</v>
+      </c>
+      <c r="B35" t="s">
+        <v>28</v>
+      </c>
+      <c r="C35" t="s">
+        <v>227</v>
+      </c>
+      <c r="D35" t="s">
+        <v>317</v>
+      </c>
+      <c r="E35" t="s">
+        <v>336</v>
+      </c>
+      <c r="F35" t="s">
+        <v>5</v>
+      </c>
+      <c r="G35" t="s">
+        <v>318</v>
+      </c>
+      <c r="H35" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36">
+        <v>36</v>
+      </c>
+      <c r="B36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" t="s">
+        <v>227</v>
+      </c>
+      <c r="D36" t="s">
+        <v>393</v>
+      </c>
+      <c r="E36" t="s">
+        <v>337</v>
+      </c>
+      <c r="F36" t="s">
+        <v>5</v>
+      </c>
+      <c r="G36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H36" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
+      <c r="A37">
+        <v>37</v>
+      </c>
+      <c r="B37" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" t="s">
+        <v>228</v>
+      </c>
+      <c r="D37" t="s">
+        <v>30</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+      <c r="F37" t="s">
+        <v>5</v>
+      </c>
+      <c r="G37" t="s">
+        <v>174</v>
+      </c>
+      <c r="H37" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
+      <c r="A38">
+        <v>38</v>
+      </c>
+      <c r="B38" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" t="s">
+        <v>228</v>
+      </c>
+      <c r="D38" t="s">
+        <v>397</v>
+      </c>
+      <c r="E38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
+      <c r="A39">
+        <v>39</v>
+      </c>
+      <c r="B39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C39" t="s">
+        <v>228</v>
+      </c>
+      <c r="D39" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" t="s">
+        <v>106</v>
+      </c>
+      <c r="F39" t="s">
+        <v>5</v>
+      </c>
+      <c r="G39" t="s">
+        <v>176</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
+      <c r="A40">
+        <v>40</v>
+      </c>
+      <c r="B40" t="s">
+        <v>83</v>
+      </c>
+      <c r="C40" t="s">
+        <v>228</v>
+      </c>
+      <c r="D40" t="s">
+        <v>399</v>
+      </c>
+      <c r="E40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>5</v>
+      </c>
+      <c r="G40" t="s">
+        <v>177</v>
+      </c>
+      <c r="H40" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41">
+        <v>41</v>
+      </c>
+      <c r="B41" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" t="s">
+        <v>228</v>
+      </c>
+      <c r="D41" t="s">
+        <v>32</v>
+      </c>
+      <c r="E41" t="s">
+        <v>108</v>
+      </c>
+      <c r="F41" t="s">
+        <v>5</v>
+      </c>
+      <c r="G41" t="s">
+        <v>178</v>
+      </c>
+      <c r="H41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42">
+        <v>42</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+      <c r="C42" t="s">
+        <v>228</v>
+      </c>
+      <c r="D42" t="s">
+        <v>33</v>
+      </c>
+      <c r="E42" t="s">
+        <v>109</v>
+      </c>
+      <c r="F42" t="s">
+        <v>5</v>
+      </c>
+      <c r="G42" t="s">
+        <v>179</v>
+      </c>
+      <c r="H42" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
+      <c r="A43">
+        <v>43</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
+        <v>228</v>
+      </c>
+      <c r="D43" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" t="s">
+        <v>110</v>
+      </c>
+      <c r="F43" t="s">
+        <v>5</v>
+      </c>
+      <c r="G43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H43" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
+      <c r="A44">
+        <v>44</v>
+      </c>
+      <c r="B44" t="s">
+        <v>83</v>
+      </c>
+      <c r="C44" t="s">
+        <v>228</v>
+      </c>
+      <c r="D44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" t="s">
+        <v>111</v>
+      </c>
+      <c r="F44" t="s">
+        <v>5</v>
+      </c>
+      <c r="G44" t="s">
+        <v>181</v>
+      </c>
+      <c r="H44" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
+      <c r="A45">
+        <v>45</v>
+      </c>
+      <c r="B45" t="s">
+        <v>83</v>
+      </c>
+      <c r="C45" t="s">
+        <v>228</v>
+      </c>
+      <c r="D45" t="s">
+        <v>36</v>
+      </c>
+      <c r="E45" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>5</v>
+      </c>
+      <c r="G45" t="s">
+        <v>182</v>
+      </c>
+      <c r="H45" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
+      <c r="A46">
+        <v>46</v>
+      </c>
+      <c r="B46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>228</v>
+      </c>
+      <c r="D46" t="s">
+        <v>258</v>
+      </c>
+      <c r="E46" t="s">
+        <v>338</v>
+      </c>
+      <c r="F46" t="s">
+        <v>5</v>
+      </c>
+      <c r="G46" t="s">
+        <v>320</v>
+      </c>
+      <c r="H46" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47">
+        <v>47</v>
+      </c>
+      <c r="B47" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" t="s">
+        <v>228</v>
+      </c>
+      <c r="D47" t="s">
+        <v>259</v>
+      </c>
+      <c r="E47" t="s">
+        <v>339</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="s">
+        <v>321</v>
+      </c>
+      <c r="H47" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>83</v>
+      </c>
+      <c r="C48" t="s">
+        <v>228</v>
+      </c>
+      <c r="D48" t="s">
+        <v>260</v>
+      </c>
+      <c r="E48" t="s">
+        <v>340</v>
+      </c>
+      <c r="F48" t="s">
+        <v>5</v>
+      </c>
+      <c r="G48" t="s">
+        <v>322</v>
+      </c>
+      <c r="H48" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49">
+        <v>49</v>
+      </c>
+      <c r="B49" t="s">
+        <v>83</v>
+      </c>
+      <c r="C49" t="s">
+        <v>228</v>
+      </c>
+      <c r="D49" t="s">
+        <v>273</v>
+      </c>
+      <c r="E49" t="s">
+        <v>341</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="s">
+        <v>323</v>
+      </c>
+      <c r="H49" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50">
+        <v>50</v>
+      </c>
+      <c r="B50" t="s">
+        <v>83</v>
+      </c>
+      <c r="C50" t="s">
+        <v>228</v>
+      </c>
+      <c r="D50" t="s">
+        <v>265</v>
+      </c>
+      <c r="E50" t="s">
+        <v>342</v>
+      </c>
+      <c r="F50" t="s">
+        <v>5</v>
+      </c>
+      <c r="G50" t="s">
+        <v>324</v>
+      </c>
+      <c r="H50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51">
+        <v>51</v>
+      </c>
+      <c r="B51" t="s">
+        <v>83</v>
+      </c>
+      <c r="C51" t="s">
+        <v>228</v>
+      </c>
+      <c r="D51" t="s">
+        <v>255</v>
+      </c>
+      <c r="E51" t="s">
+        <v>343</v>
+      </c>
+      <c r="F51" t="s">
+        <v>5</v>
+      </c>
+      <c r="G51" t="s">
+        <v>325</v>
+      </c>
+      <c r="H51" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
+      <c r="A52">
+        <v>52</v>
+      </c>
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>228</v>
+      </c>
+      <c r="D52" t="s">
+        <v>256</v>
+      </c>
+      <c r="E52" t="s">
+        <v>344</v>
+      </c>
+      <c r="F52" t="s">
+        <v>5</v>
+      </c>
+      <c r="G52" t="s">
+        <v>326</v>
+      </c>
+      <c r="H52" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="19">
+      <c r="A53">
+        <v>53</v>
+      </c>
+      <c r="B53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C53" t="s">
+        <v>229</v>
+      </c>
+      <c r="D53" t="s">
+        <v>38</v>
+      </c>
+      <c r="E53" t="s">
+        <v>237</v>
+      </c>
+      <c r="F53" t="s">
+        <v>5</v>
+      </c>
+      <c r="G53" t="s">
+        <v>183</v>
+      </c>
+      <c r="H53" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
+      <c r="A54">
+        <v>54</v>
+      </c>
+      <c r="B54" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D54" t="s">
+        <v>39</v>
+      </c>
+      <c r="E54" t="s">
+        <v>113</v>
+      </c>
+      <c r="F54" t="s">
+        <v>5</v>
+      </c>
+      <c r="G54" t="s">
+        <v>281</v>
+      </c>
+      <c r="H54" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
+      <c r="A55">
+        <v>55</v>
+      </c>
+      <c r="B55" t="s">
+        <v>37</v>
+      </c>
+      <c r="C55" t="s">
+        <v>229</v>
+      </c>
+      <c r="D55" t="s">
+        <v>40</v>
+      </c>
+      <c r="E55" t="s">
+        <v>114</v>
+      </c>
+      <c r="F55" t="s">
+        <v>5</v>
+      </c>
+      <c r="G55" t="s">
+        <v>184</v>
+      </c>
+      <c r="H55" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
+      <c r="A56">
+        <v>56</v>
+      </c>
+      <c r="B56" t="s">
+        <v>37</v>
+      </c>
+      <c r="C56" t="s">
+        <v>229</v>
+      </c>
+      <c r="D56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" t="s">
+        <v>115</v>
+      </c>
+      <c r="F56" t="s">
+        <v>5</v>
+      </c>
+      <c r="G56" t="s">
+        <v>185</v>
+      </c>
+      <c r="H56" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57">
+        <v>57</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57" t="s">
+        <v>229</v>
+      </c>
+      <c r="D57" t="s">
+        <v>42</v>
+      </c>
+      <c r="E57" t="s">
+        <v>116</v>
+      </c>
+      <c r="F57" t="s">
+        <v>5</v>
+      </c>
+      <c r="G57" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
+      <c r="A58">
+        <v>58</v>
+      </c>
+      <c r="B58" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D58" t="s">
+        <v>43</v>
+      </c>
+      <c r="E58" t="s">
+        <v>117</v>
+      </c>
+      <c r="F58" t="s">
+        <v>5</v>
+      </c>
+      <c r="G58" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
+      <c r="A59">
+        <v>59</v>
+      </c>
+      <c r="B59" t="s">
+        <v>44</v>
+      </c>
+      <c r="C59" t="s">
+        <v>230</v>
+      </c>
+      <c r="D59" t="s">
+        <v>45</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" t="s">
+        <v>188</v>
+      </c>
+      <c r="H59" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
+      <c r="A60">
+        <v>60</v>
+      </c>
+      <c r="B60" t="s">
+        <v>44</v>
+      </c>
+      <c r="C60" t="s">
+        <v>230</v>
+      </c>
+      <c r="D60" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" t="s">
+        <v>119</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="s">
+        <v>189</v>
+      </c>
+      <c r="H60" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
+      <c r="A61">
+        <v>61</v>
+      </c>
+      <c r="B61" t="s">
+        <v>44</v>
+      </c>
+      <c r="C61" t="s">
+        <v>230</v>
+      </c>
+      <c r="D61" t="s">
+        <v>47</v>
+      </c>
+      <c r="E61" t="s">
+        <v>120</v>
+      </c>
+      <c r="F61" t="s">
+        <v>5</v>
+      </c>
+      <c r="G61" t="s">
+        <v>190</v>
+      </c>
+      <c r="H61" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
+      <c r="A62">
+        <v>62</v>
+      </c>
+      <c r="B62" t="s">
+        <v>48</v>
+      </c>
+      <c r="C62" t="s">
+        <v>231</v>
+      </c>
+      <c r="D62" t="s">
+        <v>49</v>
+      </c>
+      <c r="E62" t="s">
+        <v>121</v>
+      </c>
+      <c r="F62" t="s">
+        <v>2</v>
+      </c>
+      <c r="G62" t="s">
+        <v>191</v>
+      </c>
+      <c r="H62" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
+      <c r="A63">
+        <v>63</v>
+      </c>
+      <c r="B63" t="s">
+        <v>48</v>
+      </c>
+      <c r="C63" t="s">
+        <v>231</v>
+      </c>
+      <c r="D63" t="s">
+        <v>50</v>
+      </c>
+      <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="s">
+        <v>192</v>
+      </c>
+      <c r="H63" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
+      <c r="A64">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>48</v>
+      </c>
+      <c r="C64" t="s">
+        <v>231</v>
+      </c>
+      <c r="D64" t="s">
+        <v>421</v>
+      </c>
+      <c r="E64" t="s">
+        <v>123</v>
+      </c>
+      <c r="F64" t="s">
+        <v>5</v>
+      </c>
+      <c r="G64" t="s">
+        <v>193</v>
+      </c>
+      <c r="H64" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="A65">
+        <v>65</v>
+      </c>
+      <c r="B65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C65" t="s">
+        <v>232</v>
+      </c>
+      <c r="D65" t="s">
+        <v>52</v>
+      </c>
+      <c r="E65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F65" t="s">
+        <v>5</v>
+      </c>
+      <c r="G65" t="s">
+        <v>194</v>
+      </c>
+      <c r="H65" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="A66">
+        <v>66</v>
+      </c>
+      <c r="B66" t="s">
+        <v>51</v>
+      </c>
+      <c r="C66" t="s">
+        <v>232</v>
+      </c>
+      <c r="D66" t="s">
+        <v>53</v>
+      </c>
+      <c r="E66" t="s">
+        <v>125</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="s">
+        <v>195</v>
+      </c>
+      <c r="H66" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67">
+        <v>67</v>
+      </c>
+      <c r="B67" t="s">
+        <v>51</v>
+      </c>
+      <c r="C67" t="s">
+        <v>232</v>
+      </c>
+      <c r="D67" t="s">
+        <v>54</v>
+      </c>
+      <c r="E67" t="s">
+        <v>126</v>
+      </c>
+      <c r="F67" t="s">
+        <v>5</v>
+      </c>
+      <c r="G67" t="s">
+        <v>196</v>
+      </c>
+      <c r="H67" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
+      <c r="A68">
+        <v>68</v>
+      </c>
+      <c r="B68" t="s">
+        <v>51</v>
+      </c>
+      <c r="C68" t="s">
+        <v>232</v>
+      </c>
+      <c r="D68" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" t="s">
+        <v>127</v>
+      </c>
+      <c r="F68" t="s">
+        <v>5</v>
+      </c>
+      <c r="G68" t="s">
+        <v>197</v>
+      </c>
+      <c r="H68" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
+      <c r="A69">
+        <v>69</v>
+      </c>
+      <c r="B69" t="s">
+        <v>51</v>
+      </c>
+      <c r="C69" t="s">
+        <v>232</v>
+      </c>
+      <c r="D69" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" t="s">
+        <v>128</v>
+      </c>
+      <c r="F69" t="s">
+        <v>5</v>
+      </c>
+      <c r="G69" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
+      <c r="A70">
+        <v>70</v>
+      </c>
+      <c r="B70" t="s">
+        <v>51</v>
+      </c>
+      <c r="C70" t="s">
+        <v>232</v>
+      </c>
+      <c r="D70" t="s">
+        <v>57</v>
+      </c>
+      <c r="E70" t="s">
+        <v>129</v>
+      </c>
+      <c r="F70" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" t="s">
+        <v>199</v>
+      </c>
+      <c r="H70" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
+      <c r="A71">
+        <v>71</v>
+      </c>
+      <c r="B71" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" t="s">
+        <v>232</v>
+      </c>
+      <c r="D71" t="s">
+        <v>58</v>
+      </c>
+      <c r="E71" t="s">
+        <v>130</v>
+      </c>
+      <c r="F71" t="s">
+        <v>5</v>
+      </c>
+      <c r="G71" t="s">
+        <v>200</v>
+      </c>
+      <c r="H71" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
+      <c r="A72">
+        <v>72</v>
+      </c>
+      <c r="B72" t="s">
+        <v>51</v>
+      </c>
+      <c r="C72" t="s">
+        <v>232</v>
+      </c>
+      <c r="D72" t="s">
+        <v>59</v>
+      </c>
+      <c r="E72" t="s">
+        <v>131</v>
+      </c>
+      <c r="F72" t="s">
+        <v>5</v>
+      </c>
+      <c r="G72" t="s">
+        <v>201</v>
+      </c>
+      <c r="H72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
+      <c r="A73">
+        <v>73</v>
+      </c>
+      <c r="B73" t="s">
+        <v>51</v>
+      </c>
+      <c r="C73" t="s">
+        <v>232</v>
+      </c>
+      <c r="D73" t="s">
+        <v>60</v>
+      </c>
+      <c r="E73" t="s">
+        <v>132</v>
+      </c>
+      <c r="F73" t="s">
+        <v>5</v>
+      </c>
+      <c r="G73" t="s">
+        <v>202</v>
+      </c>
+      <c r="H73" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74">
+        <v>74</v>
+      </c>
+      <c r="B74" t="s">
+        <v>51</v>
+      </c>
+      <c r="C74" t="s">
+        <v>232</v>
+      </c>
+      <c r="D74" t="s">
+        <v>61</v>
+      </c>
+      <c r="E74" t="s">
+        <v>133</v>
+      </c>
+      <c r="F74" t="s">
+        <v>5</v>
+      </c>
+      <c r="G74" t="s">
+        <v>203</v>
+      </c>
+      <c r="H74" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="19">
+      <c r="A75">
+        <v>75</v>
+      </c>
+      <c r="B75" t="s">
+        <v>62</v>
+      </c>
+      <c r="C75" t="s">
+        <v>233</v>
+      </c>
+      <c r="D75" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="s">
+        <v>204</v>
+      </c>
+      <c r="H75" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
+      <c r="A76">
+        <v>76</v>
+      </c>
+      <c r="B76" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" t="s">
+        <v>233</v>
+      </c>
+      <c r="D76" t="s">
+        <v>64</v>
+      </c>
+      <c r="E76" t="s">
+        <v>134</v>
+      </c>
+      <c r="F76" t="s">
+        <v>5</v>
+      </c>
+      <c r="G76" t="s">
+        <v>205</v>
+      </c>
+      <c r="H76" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
+      <c r="A77">
+        <v>77</v>
+      </c>
+      <c r="B77" t="s">
+        <v>62</v>
+      </c>
+      <c r="C77" t="s">
+        <v>233</v>
+      </c>
+      <c r="D77" t="s">
+        <v>65</v>
+      </c>
+      <c r="E77" t="s">
+        <v>135</v>
+      </c>
+      <c r="F77" t="s">
+        <v>5</v>
+      </c>
+      <c r="G77" t="s">
+        <v>206</v>
+      </c>
+      <c r="H77" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
+      <c r="A78">
+        <v>78</v>
+      </c>
+      <c r="B78" t="s">
+        <v>62</v>
+      </c>
+      <c r="C78" t="s">
+        <v>233</v>
+      </c>
+      <c r="D78" t="s">
+        <v>66</v>
+      </c>
+      <c r="E78" t="s">
+        <v>136</v>
+      </c>
+      <c r="F78" t="s">
+        <v>5</v>
+      </c>
+      <c r="G78" t="s">
+        <v>207</v>
+      </c>
+      <c r="H78" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
+      <c r="A79">
+        <v>79</v>
+      </c>
+      <c r="B79" t="s">
+        <v>62</v>
+      </c>
+      <c r="C79" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" t="s">
+        <v>67</v>
+      </c>
+      <c r="E79" t="s">
+        <v>137</v>
+      </c>
+      <c r="F79" t="s">
+        <v>5</v>
+      </c>
+      <c r="G79" t="s">
+        <v>208</v>
+      </c>
+      <c r="H79" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80">
+        <v>80</v>
+      </c>
+      <c r="B80" t="s">
+        <v>62</v>
+      </c>
+      <c r="C80" t="s">
+        <v>233</v>
+      </c>
+      <c r="D80" t="s">
+        <v>68</v>
+      </c>
+      <c r="E80" t="s">
+        <v>138</v>
+      </c>
+      <c r="F80" t="s">
+        <v>5</v>
+      </c>
+      <c r="G80" t="s">
+        <v>209</v>
+      </c>
+      <c r="H80" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81">
+        <v>81</v>
+      </c>
+      <c r="B81" t="s">
+        <v>62</v>
+      </c>
+      <c r="C81" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" t="s">
+        <v>139</v>
+      </c>
+      <c r="F81" t="s">
+        <v>5</v>
+      </c>
+      <c r="G81" t="s">
+        <v>210</v>
+      </c>
+      <c r="H81" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
+      <c r="A82">
+        <v>82</v>
+      </c>
+      <c r="B82" t="s">
+        <v>62</v>
+      </c>
+      <c r="C82" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" t="s">
+        <v>70</v>
+      </c>
+      <c r="E82" t="s">
+        <v>140</v>
+      </c>
+      <c r="F82" t="s">
+        <v>5</v>
+      </c>
+      <c r="G82" t="s">
+        <v>211</v>
+      </c>
+      <c r="H82" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="19">
+      <c r="A83">
+        <v>83</v>
+      </c>
+      <c r="B83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C83" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" t="s">
+        <v>71</v>
+      </c>
+      <c r="E83" t="s">
+        <v>283</v>
+      </c>
+      <c r="F83" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" t="s">
+        <v>212</v>
+      </c>
+      <c r="H83" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
+      <c r="A84">
+        <v>84</v>
+      </c>
+      <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84" t="s">
+        <v>233</v>
+      </c>
+      <c r="D84" t="s">
+        <v>72</v>
+      </c>
+      <c r="E84" t="s">
+        <v>141</v>
+      </c>
+      <c r="F84" t="s">
+        <v>5</v>
+      </c>
+      <c r="G84" t="s">
+        <v>282</v>
+      </c>
+      <c r="H84" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
+      <c r="A85">
+        <v>85</v>
+      </c>
+      <c r="B85" t="s">
+        <v>62</v>
+      </c>
+      <c r="C85" t="s">
+        <v>233</v>
+      </c>
+      <c r="D85" t="s">
+        <v>73</v>
+      </c>
+      <c r="E85" t="s">
+        <v>142</v>
+      </c>
+      <c r="F85" t="s">
+        <v>5</v>
+      </c>
+      <c r="G85" t="s">
+        <v>213</v>
+      </c>
+      <c r="H85" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
+      <c r="A86">
+        <v>86</v>
+      </c>
+      <c r="B86" t="s">
+        <v>62</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>74</v>
+      </c>
+      <c r="E86" t="s">
+        <v>143</v>
+      </c>
+      <c r="F86" t="s">
+        <v>5</v>
+      </c>
+      <c r="G86" t="s">
+        <v>279</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
+      <c r="A87">
+        <v>87</v>
+      </c>
+      <c r="B87" t="s">
+        <v>62</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" t="s">
+        <v>75</v>
+      </c>
+      <c r="E87" t="s">
+        <v>144</v>
+      </c>
+      <c r="F87" t="s">
+        <v>5</v>
+      </c>
+      <c r="G87" t="s">
+        <v>214</v>
+      </c>
+      <c r="H87" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
+      <c r="A88">
+        <v>88</v>
+      </c>
+      <c r="B88" t="s">
+        <v>62</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>76</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" t="s">
+        <v>5</v>
+      </c>
+      <c r="G88" t="s">
+        <v>215</v>
+      </c>
+      <c r="H88" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
+      <c r="A89">
+        <v>89</v>
+      </c>
+      <c r="B89" t="s">
+        <v>62</v>
+      </c>
+      <c r="C89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" t="s">
+        <v>146</v>
+      </c>
+      <c r="F89" t="s">
+        <v>5</v>
+      </c>
+      <c r="G89" t="s">
+        <v>216</v>
+      </c>
+      <c r="H89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
+      <c r="A90">
         <v>90</v>
       </c>
-      <c r="C29" t="s">
+      <c r="B90" t="s">
+        <v>62</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>78</v>
+      </c>
+      <c r="E90" t="s">
+        <v>147</v>
+      </c>
+      <c r="F90" t="s">
+        <v>5</v>
+      </c>
+      <c r="G90" t="s">
+        <v>217</v>
+      </c>
+      <c r="H90" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
+      <c r="A91">
+        <v>91</v>
+      </c>
+      <c r="B91" t="s">
+        <v>62</v>
+      </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" t="s">
+        <v>284</v>
+      </c>
+      <c r="E91" t="s">
+        <v>346</v>
+      </c>
+      <c r="F91" t="s">
+        <v>5</v>
+      </c>
+      <c r="G91" t="s">
+        <v>285</v>
+      </c>
+      <c r="H91" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
+      <c r="A92">
+        <v>92</v>
+      </c>
+      <c r="B92" t="s">
+        <v>62</v>
+      </c>
+      <c r="C92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" t="s">
+        <v>440</v>
+      </c>
+      <c r="E92" t="s">
+        <v>347</v>
+      </c>
+      <c r="F92" t="s">
+        <v>5</v>
+      </c>
+      <c r="G92" t="s">
+        <v>286</v>
+      </c>
+      <c r="H92" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
+      <c r="A93">
+        <v>93</v>
+      </c>
+      <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="C93" t="s">
+        <v>233</v>
+      </c>
+      <c r="D93" t="s">
+        <v>268</v>
+      </c>
+      <c r="E93" t="s">
+        <v>348</v>
+      </c>
+      <c r="F93" t="s">
+        <v>5</v>
+      </c>
+      <c r="G93" t="s">
+        <v>287</v>
+      </c>
+      <c r="H93" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
+      <c r="A94">
+        <v>94</v>
+      </c>
+      <c r="B94" t="s">
+        <v>62</v>
+      </c>
+      <c r="C94" t="s">
+        <v>233</v>
+      </c>
+      <c r="D94" t="s">
+        <v>271</v>
+      </c>
+      <c r="E94" t="s">
+        <v>349</v>
+      </c>
+      <c r="F94" t="s">
+        <v>5</v>
+      </c>
+      <c r="G94" t="s">
+        <v>288</v>
+      </c>
+      <c r="H94" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
+      <c r="A95">
+        <v>95</v>
+      </c>
+      <c r="B95" t="s">
+        <v>62</v>
+      </c>
+      <c r="C95" t="s">
+        <v>233</v>
+      </c>
+      <c r="D95" t="s">
+        <v>269</v>
+      </c>
+      <c r="E95" t="s">
+        <v>350</v>
+      </c>
+      <c r="F95" t="s">
+        <v>5</v>
+      </c>
+      <c r="G95" t="s">
+        <v>289</v>
+      </c>
+      <c r="H95" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96">
+        <v>96</v>
+      </c>
+      <c r="B96" t="s">
+        <v>79</v>
+      </c>
+      <c r="C96" t="s">
+        <v>234</v>
+      </c>
+      <c r="D96" t="s">
+        <v>218</v>
+      </c>
+      <c r="E96" t="s">
+        <v>148</v>
+      </c>
+      <c r="F96" t="s">
+        <v>6</v>
+      </c>
+      <c r="G96" t="s">
+        <v>219</v>
+      </c>
+      <c r="H96" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
+      <c r="A97">
+        <v>97</v>
+      </c>
+      <c r="B97" t="s">
+        <v>79</v>
+      </c>
+      <c r="C97" t="s">
+        <v>234</v>
+      </c>
+      <c r="D97" t="s">
+        <v>80</v>
+      </c>
+      <c r="E97" t="s">
+        <v>149</v>
+      </c>
+      <c r="F97" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" t="s">
+        <v>220</v>
+      </c>
+      <c r="H97" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
+      <c r="A98">
+        <v>98</v>
+      </c>
+      <c r="B98" t="s">
+        <v>79</v>
+      </c>
+      <c r="C98" t="s">
+        <v>234</v>
+      </c>
+      <c r="D98" t="s">
+        <v>81</v>
+      </c>
+      <c r="E98" t="s">
+        <v>150</v>
+      </c>
+      <c r="F98" t="s">
+        <v>6</v>
+      </c>
+      <c r="G98" t="s">
+        <v>221</v>
+      </c>
+      <c r="H98" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
+      <c r="A99">
+        <v>99</v>
+      </c>
+      <c r="B99" t="s">
+        <v>79</v>
+      </c>
+      <c r="C99" t="s">
+        <v>234</v>
+      </c>
+      <c r="D99" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" t="s">
+        <v>151</v>
+      </c>
+      <c r="F99" t="s">
+        <v>2</v>
+      </c>
+      <c r="G99" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
+      <c r="A100">
+        <v>100</v>
+      </c>
+      <c r="B100" t="s">
+        <v>272</v>
+      </c>
+      <c r="C100" t="s">
+        <v>345</v>
+      </c>
+      <c r="D100" t="s">
+        <v>241</v>
+      </c>
+      <c r="E100" t="s">
+        <v>351</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="s">
+        <v>290</v>
+      </c>
+      <c r="H100" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
+      <c r="A101">
+        <v>101</v>
+      </c>
+      <c r="B101" t="s">
+        <v>272</v>
+      </c>
+      <c r="C101" t="s">
+        <v>345</v>
+      </c>
+      <c r="D101" t="s">
+        <v>242</v>
+      </c>
+      <c r="E101" t="s">
+        <v>352</v>
+      </c>
+      <c r="F101" t="s">
+        <v>5</v>
+      </c>
+      <c r="G101" t="s">
+        <v>291</v>
+      </c>
+      <c r="H101" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
+      <c r="A102">
+        <v>102</v>
+      </c>
+      <c r="B102" t="s">
+        <v>272</v>
+      </c>
+      <c r="C102" t="s">
+        <v>345</v>
+      </c>
+      <c r="D102" t="s">
+        <v>243</v>
+      </c>
+      <c r="E102" t="s">
+        <v>353</v>
+      </c>
+      <c r="F102" t="s">
+        <v>5</v>
+      </c>
+      <c r="G102" t="s">
+        <v>292</v>
+      </c>
+      <c r="H102" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
+      <c r="A103">
+        <v>103</v>
+      </c>
+      <c r="B103" t="s">
+        <v>272</v>
+      </c>
+      <c r="C103" t="s">
+        <v>345</v>
+      </c>
+      <c r="D103" t="s">
         <v>244</v>
       </c>
-      <c r="D29" t="s">
-        <v>37</v>
-      </c>
-      <c r="E29" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" t="s">
-        <v>6</v>
-      </c>
-      <c r="G29" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>90</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="E103" t="s">
+        <v>354</v>
+      </c>
+      <c r="F103" t="s">
+        <v>5</v>
+      </c>
+      <c r="G103" t="s">
+        <v>293</v>
+      </c>
+      <c r="H103" t="s">
         <v>244</v>
       </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>119</v>
-      </c>
-      <c r="F30" t="s">
-        <v>6</v>
-      </c>
-      <c r="G30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>90</v>
-      </c>
-      <c r="C31" t="s">
-        <v>244</v>
-      </c>
-      <c r="D31" t="s">
-        <v>39</v>
-      </c>
-      <c r="E31" t="s">
-        <v>120</v>
-      </c>
-      <c r="F31" t="s">
-        <v>6</v>
-      </c>
-      <c r="G31" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>90</v>
-      </c>
-      <c r="C32" t="s">
-        <v>244</v>
-      </c>
-      <c r="D32" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F32" t="s">
-        <v>6</v>
-      </c>
-      <c r="G32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>90</v>
-      </c>
-      <c r="C33" t="s">
-        <v>244</v>
-      </c>
-      <c r="D33" t="s">
-        <v>41</v>
-      </c>
-      <c r="E33" t="s">
-        <v>122</v>
-      </c>
-      <c r="F33" t="s">
-        <v>6</v>
-      </c>
-      <c r="G33" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>90</v>
-      </c>
-      <c r="C34" t="s">
-        <v>244</v>
-      </c>
-      <c r="D34" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" t="s">
-        <v>123</v>
-      </c>
-      <c r="F34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G34" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="104" spans="1:8">
+      <c r="A104">
+        <v>104</v>
+      </c>
+      <c r="B104" t="s">
+        <v>272</v>
+      </c>
+      <c r="C104" t="s">
+        <v>345</v>
+      </c>
+      <c r="D104" t="s">
         <v>245</v>
       </c>
-      <c r="D35" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" t="s">
-        <v>6</v>
-      </c>
-      <c r="G35" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>43</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="E104" t="s">
+        <v>355</v>
+      </c>
+      <c r="F104" t="s">
+        <v>5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>294</v>
+      </c>
+      <c r="H104" t="s">
         <v>245</v>
       </c>
-      <c r="D36" t="s">
-        <v>45</v>
-      </c>
-      <c r="E36" t="s">
-        <v>124</v>
-      </c>
-      <c r="F36" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" t="s">
-        <v>245</v>
-      </c>
-      <c r="D37" t="s">
-        <v>46</v>
-      </c>
-      <c r="E37" t="s">
-        <v>125</v>
-      </c>
-      <c r="F37" t="s">
-        <v>6</v>
-      </c>
-      <c r="G37" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C38" t="s">
-        <v>245</v>
-      </c>
-      <c r="D38" t="s">
-        <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>126</v>
-      </c>
-      <c r="F38" t="s">
-        <v>6</v>
-      </c>
-      <c r="G38" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>43</v>
-      </c>
-      <c r="C39" t="s">
-        <v>245</v>
-      </c>
-      <c r="D39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" t="s">
-        <v>127</v>
-      </c>
-      <c r="F39" t="s">
-        <v>6</v>
-      </c>
-      <c r="G39" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>43</v>
-      </c>
-      <c r="C40" t="s">
-        <v>245</v>
-      </c>
-      <c r="D40" t="s">
-        <v>49</v>
-      </c>
-      <c r="E40" t="s">
-        <v>128</v>
-      </c>
-      <c r="F40" t="s">
-        <v>6</v>
-      </c>
-      <c r="G40" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
-      </c>
-      <c r="C41" t="s">
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105">
+        <v>105</v>
+      </c>
+      <c r="B105" t="s">
+        <v>272</v>
+      </c>
+      <c r="C105" t="s">
+        <v>345</v>
+      </c>
+      <c r="D105" t="s">
+        <v>295</v>
+      </c>
+      <c r="E105" t="s">
+        <v>356</v>
+      </c>
+      <c r="F105" t="s">
+        <v>5</v>
+      </c>
+      <c r="G105" t="s">
+        <v>296</v>
+      </c>
+      <c r="H105" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
+      <c r="A106">
+        <v>106</v>
+      </c>
+      <c r="B106" t="s">
+        <v>272</v>
+      </c>
+      <c r="C106" t="s">
+        <v>345</v>
+      </c>
+      <c r="D106" t="s">
         <v>246</v>
       </c>
-      <c r="D41" t="s">
-        <v>51</v>
-      </c>
-      <c r="E41" t="s">
-        <v>129</v>
-      </c>
-      <c r="F41" t="s">
-        <v>6</v>
-      </c>
-      <c r="G41" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>50</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="E106" t="s">
+        <v>357</v>
+      </c>
+      <c r="F106" t="s">
+        <v>5</v>
+      </c>
+      <c r="G106" t="s">
+        <v>297</v>
+      </c>
+      <c r="H106" t="s">
         <v>246</v>
       </c>
-      <c r="D42" t="s">
-        <v>52</v>
-      </c>
-      <c r="E42" t="s">
-        <v>130</v>
-      </c>
-      <c r="F42" t="s">
-        <v>6</v>
-      </c>
-      <c r="G42" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C43" t="s">
-        <v>246</v>
-      </c>
-      <c r="D43" t="s">
-        <v>53</v>
-      </c>
-      <c r="E43" t="s">
-        <v>131</v>
-      </c>
-      <c r="F43" t="s">
-        <v>6</v>
-      </c>
-      <c r="G43" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
+    </row>
+    <row r="107" spans="1:8">
+      <c r="A107">
+        <v>107</v>
+      </c>
+      <c r="B107" t="s">
+        <v>272</v>
+      </c>
+      <c r="C107" t="s">
+        <v>345</v>
+      </c>
+      <c r="D107" t="s">
         <v>247</v>
       </c>
-      <c r="D44" t="s">
-        <v>55</v>
-      </c>
-      <c r="E44" t="s">
-        <v>132</v>
-      </c>
-      <c r="F44" t="s">
-        <v>6</v>
-      </c>
-      <c r="G44" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>54</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="E107" t="s">
+        <v>358</v>
+      </c>
+      <c r="F107" t="s">
+        <v>5</v>
+      </c>
+      <c r="G107" t="s">
+        <v>298</v>
+      </c>
+      <c r="H107" t="s">
         <v>247</v>
       </c>
-      <c r="D45" t="s">
-        <v>56</v>
-      </c>
-      <c r="E45" t="s">
-        <v>133</v>
-      </c>
-      <c r="F45" t="s">
-        <v>6</v>
-      </c>
-      <c r="G45" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>54</v>
-      </c>
-      <c r="C46" t="s">
-        <v>247</v>
-      </c>
-      <c r="D46" t="s">
-        <v>57</v>
-      </c>
-      <c r="E46" t="s">
-        <v>134</v>
-      </c>
-      <c r="F46" t="s">
-        <v>6</v>
-      </c>
-      <c r="G46" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>58</v>
-      </c>
-      <c r="C47" t="s">
+    </row>
+    <row r="108" spans="1:8">
+      <c r="A108">
+        <v>108</v>
+      </c>
+      <c r="B108" t="s">
+        <v>272</v>
+      </c>
+      <c r="C108" t="s">
+        <v>345</v>
+      </c>
+      <c r="D108" t="s">
         <v>248</v>
       </c>
-      <c r="D47" t="s">
-        <v>59</v>
-      </c>
-      <c r="E47" t="s">
-        <v>135</v>
-      </c>
-      <c r="F47" t="s">
-        <v>6</v>
-      </c>
-      <c r="G47" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>58</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="E108" t="s">
+        <v>359</v>
+      </c>
+      <c r="F108" t="s">
+        <v>5</v>
+      </c>
+      <c r="G108" t="s">
+        <v>299</v>
+      </c>
+      <c r="H108" t="s">
         <v>248</v>
       </c>
-      <c r="D48" t="s">
-        <v>60</v>
-      </c>
-      <c r="E48" t="s">
-        <v>136</v>
-      </c>
-      <c r="F48" t="s">
-        <v>6</v>
-      </c>
-      <c r="G48" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>58</v>
-      </c>
-      <c r="C49" t="s">
-        <v>248</v>
-      </c>
-      <c r="D49" t="s">
-        <v>61</v>
-      </c>
-      <c r="E49" t="s">
-        <v>137</v>
-      </c>
-      <c r="F49" t="s">
-        <v>6</v>
-      </c>
-      <c r="G49" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>58</v>
-      </c>
-      <c r="C50" t="s">
-        <v>248</v>
-      </c>
-      <c r="D50" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" t="s">
-        <v>138</v>
-      </c>
-      <c r="F50" t="s">
-        <v>6</v>
-      </c>
-      <c r="G50" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" t="s">
-        <v>248</v>
-      </c>
-      <c r="D51" t="s">
-        <v>63</v>
-      </c>
-      <c r="E51" t="s">
-        <v>139</v>
-      </c>
-      <c r="F51" t="s">
-        <v>6</v>
-      </c>
-      <c r="G51" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52" t="s">
-        <v>248</v>
-      </c>
-      <c r="D52" t="s">
-        <v>64</v>
-      </c>
-      <c r="E52" t="s">
-        <v>140</v>
-      </c>
-      <c r="F52" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>58</v>
-      </c>
-      <c r="C53" t="s">
-        <v>248</v>
-      </c>
-      <c r="D53" t="s">
-        <v>65</v>
-      </c>
-      <c r="E53" t="s">
-        <v>141</v>
-      </c>
-      <c r="F53" t="s">
-        <v>6</v>
-      </c>
-      <c r="G53" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>58</v>
-      </c>
-      <c r="C54" t="s">
-        <v>248</v>
-      </c>
-      <c r="D54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" t="s">
-        <v>142</v>
-      </c>
-      <c r="F54" t="s">
-        <v>6</v>
-      </c>
-      <c r="G54" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>58</v>
-      </c>
-      <c r="C55" t="s">
-        <v>248</v>
-      </c>
-      <c r="D55" t="s">
-        <v>67</v>
-      </c>
-      <c r="E55" t="s">
-        <v>143</v>
-      </c>
-      <c r="F55" t="s">
-        <v>6</v>
-      </c>
-      <c r="G55" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>58</v>
-      </c>
-      <c r="C56" t="s">
-        <v>248</v>
-      </c>
-      <c r="D56" t="s">
-        <v>68</v>
-      </c>
-      <c r="E56" t="s">
-        <v>144</v>
-      </c>
-      <c r="F56" t="s">
-        <v>6</v>
-      </c>
-      <c r="G56" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>69</v>
-      </c>
-      <c r="C57" t="s">
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109">
+        <v>109</v>
+      </c>
+      <c r="B109" t="s">
+        <v>272</v>
+      </c>
+      <c r="C109" t="s">
+        <v>345</v>
+      </c>
+      <c r="D109" t="s">
         <v>249</v>
       </c>
-      <c r="D57" t="s">
-        <v>70</v>
-      </c>
-      <c r="E57" s="2" t="s">
+      <c r="E109" t="s">
+        <v>360</v>
+      </c>
+      <c r="F109" t="s">
+        <v>5</v>
+      </c>
+      <c r="G109" t="s">
+        <v>300</v>
+      </c>
+      <c r="H109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110">
+        <v>110</v>
+      </c>
+      <c r="B110" t="s">
+        <v>272</v>
+      </c>
+      <c r="C110" t="s">
+        <v>345</v>
+      </c>
+      <c r="D110" t="s">
+        <v>250</v>
+      </c>
+      <c r="E110" t="s">
+        <v>361</v>
+      </c>
+      <c r="F110" t="s">
+        <v>5</v>
+      </c>
+      <c r="G110" t="s">
+        <v>301</v>
+      </c>
+      <c r="H110" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111">
+        <v>111</v>
+      </c>
+      <c r="B111" t="s">
+        <v>272</v>
+      </c>
+      <c r="C111" t="s">
+        <v>345</v>
+      </c>
+      <c r="D111" t="s">
+        <v>251</v>
+      </c>
+      <c r="E111" t="s">
+        <v>362</v>
+      </c>
+      <c r="F111" t="s">
+        <v>5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>302</v>
+      </c>
+      <c r="H111" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" ht="19">
+      <c r="A112">
+        <v>112</v>
+      </c>
+      <c r="B112" t="s">
+        <v>272</v>
+      </c>
+      <c r="C112" t="s">
+        <v>345</v>
+      </c>
+      <c r="D112" t="s">
         <v>252</v>
       </c>
-      <c r="F57" t="s">
-        <v>6</v>
-      </c>
-      <c r="G57" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>69</v>
-      </c>
-      <c r="C58" t="s">
-        <v>249</v>
-      </c>
-      <c r="D58" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" t="s">
-        <v>145</v>
-      </c>
-      <c r="F58" t="s">
-        <v>6</v>
-      </c>
-      <c r="G58" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" t="s">
-        <v>249</v>
-      </c>
-      <c r="D59" t="s">
-        <v>72</v>
-      </c>
-      <c r="E59" t="s">
-        <v>146</v>
-      </c>
-      <c r="F59" t="s">
-        <v>6</v>
-      </c>
-      <c r="G59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>69</v>
-      </c>
-      <c r="C60" t="s">
-        <v>249</v>
-      </c>
-      <c r="D60" t="s">
-        <v>73</v>
-      </c>
-      <c r="E60" t="s">
-        <v>147</v>
-      </c>
-      <c r="F60" t="s">
-        <v>6</v>
-      </c>
-      <c r="G60" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C61" t="s">
-        <v>249</v>
-      </c>
-      <c r="D61" t="s">
-        <v>74</v>
-      </c>
-      <c r="E61" t="s">
-        <v>148</v>
-      </c>
-      <c r="F61" t="s">
-        <v>6</v>
-      </c>
-      <c r="G61" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>69</v>
-      </c>
-      <c r="C62" t="s">
-        <v>249</v>
-      </c>
-      <c r="D62" t="s">
-        <v>75</v>
-      </c>
-      <c r="E62" t="s">
-        <v>149</v>
-      </c>
-      <c r="F62" t="s">
-        <v>6</v>
-      </c>
-      <c r="G62" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63" t="s">
-        <v>249</v>
-      </c>
-      <c r="D63" t="s">
-        <v>76</v>
-      </c>
-      <c r="E63" t="s">
-        <v>150</v>
-      </c>
-      <c r="F63" t="s">
-        <v>6</v>
-      </c>
-      <c r="G63" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>69</v>
-      </c>
-      <c r="C64" t="s">
-        <v>249</v>
-      </c>
-      <c r="D64" t="s">
-        <v>77</v>
-      </c>
-      <c r="E64" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" t="s">
-        <v>6</v>
-      </c>
-      <c r="G64" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>69</v>
-      </c>
-      <c r="C65" t="s">
-        <v>249</v>
-      </c>
-      <c r="D65" t="s">
-        <v>78</v>
-      </c>
-      <c r="E65" t="s">
-        <v>152</v>
-      </c>
-      <c r="F65" t="s">
-        <v>6</v>
-      </c>
-      <c r="G65" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>69</v>
-      </c>
-      <c r="C66" t="s">
-        <v>249</v>
-      </c>
-      <c r="D66" t="s">
-        <v>79</v>
-      </c>
-      <c r="E66" t="s">
-        <v>153</v>
-      </c>
-      <c r="F66" t="s">
-        <v>6</v>
-      </c>
-      <c r="G66" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>69</v>
-      </c>
-      <c r="C67" t="s">
-        <v>249</v>
-      </c>
-      <c r="D67" t="s">
-        <v>80</v>
-      </c>
-      <c r="E67" t="s">
-        <v>154</v>
-      </c>
-      <c r="F67" t="s">
-        <v>6</v>
-      </c>
-      <c r="G67" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>69</v>
-      </c>
-      <c r="C68" t="s">
-        <v>249</v>
-      </c>
-      <c r="D68" t="s">
-        <v>81</v>
-      </c>
-      <c r="E68" t="s">
-        <v>155</v>
-      </c>
-      <c r="F68" t="s">
-        <v>6</v>
-      </c>
-      <c r="G68" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>69</v>
-      </c>
-      <c r="C69" t="s">
-        <v>249</v>
-      </c>
-      <c r="D69" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" t="s">
-        <v>156</v>
-      </c>
-      <c r="F69" t="s">
-        <v>6</v>
-      </c>
-      <c r="G69" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>69</v>
-      </c>
-      <c r="C70" t="s">
-        <v>249</v>
-      </c>
-      <c r="D70" t="s">
-        <v>83</v>
-      </c>
-      <c r="E70" t="s">
-        <v>157</v>
-      </c>
-      <c r="F70" t="s">
-        <v>6</v>
-      </c>
-      <c r="G70" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C71" t="s">
-        <v>249</v>
-      </c>
-      <c r="D71" t="s">
-        <v>84</v>
-      </c>
-      <c r="E71" t="s">
-        <v>158</v>
-      </c>
-      <c r="F71" t="s">
-        <v>6</v>
-      </c>
-      <c r="G71" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>69</v>
-      </c>
-      <c r="C72" t="s">
-        <v>249</v>
-      </c>
-      <c r="D72" t="s">
-        <v>85</v>
-      </c>
-      <c r="E72" t="s">
-        <v>159</v>
-      </c>
-      <c r="F72" t="s">
-        <v>6</v>
-      </c>
-      <c r="G72" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>86</v>
-      </c>
-      <c r="C73" t="s">
-        <v>250</v>
-      </c>
-      <c r="D73" t="s">
-        <v>234</v>
-      </c>
-      <c r="E73" t="s">
-        <v>160</v>
-      </c>
-      <c r="F73" t="s">
-        <v>7</v>
-      </c>
-      <c r="G73" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>86</v>
-      </c>
-      <c r="C74" t="s">
-        <v>250</v>
-      </c>
-      <c r="D74" t="s">
-        <v>87</v>
-      </c>
-      <c r="E74" t="s">
-        <v>161</v>
-      </c>
-      <c r="F74" t="s">
-        <v>7</v>
-      </c>
-      <c r="G74" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>86</v>
-      </c>
-      <c r="C75" t="s">
-        <v>250</v>
-      </c>
-      <c r="D75" t="s">
-        <v>88</v>
-      </c>
-      <c r="E75" t="s">
-        <v>162</v>
-      </c>
-      <c r="F75" t="s">
-        <v>7</v>
-      </c>
-      <c r="G75" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>86</v>
-      </c>
-      <c r="C76" t="s">
-        <v>250</v>
-      </c>
-      <c r="D76" t="s">
-        <v>89</v>
-      </c>
-      <c r="E76" t="s">
-        <v>163</v>
-      </c>
-      <c r="F76" t="s">
-        <v>2</v>
-      </c>
-      <c r="G76" t="s">
-        <v>164</v>
+      <c r="E112" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="F112" t="s">
+        <v>5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>303</v>
+      </c>
+      <c r="H112" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
+      <c r="A113">
+        <v>113</v>
+      </c>
+      <c r="B113" t="s">
+        <v>272</v>
+      </c>
+      <c r="C113" t="s">
+        <v>345</v>
+      </c>
+      <c r="D113" t="s">
+        <v>253</v>
+      </c>
+      <c r="E113" t="s">
+        <v>364</v>
+      </c>
+      <c r="F113" t="s">
+        <v>5</v>
+      </c>
+      <c r="G113" t="s">
+        <v>304</v>
+      </c>
+      <c r="H113" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
+      <c r="A114">
+        <v>114</v>
+      </c>
+      <c r="B114" t="s">
+        <v>272</v>
+      </c>
+      <c r="C114" t="s">
+        <v>345</v>
+      </c>
+      <c r="D114" t="s">
+        <v>254</v>
+      </c>
+      <c r="E114" t="s">
+        <v>365</v>
+      </c>
+      <c r="F114" t="s">
+        <v>5</v>
+      </c>
+      <c r="G114" t="s">
+        <v>305</v>
+      </c>
+      <c r="H114" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
+      <c r="A115">
+        <v>115</v>
+      </c>
+      <c r="B115" t="s">
+        <v>272</v>
+      </c>
+      <c r="C115" t="s">
+        <v>345</v>
+      </c>
+      <c r="D115" t="s">
+        <v>257</v>
+      </c>
+      <c r="E115" t="s">
+        <v>366</v>
+      </c>
+      <c r="F115" t="s">
+        <v>5</v>
+      </c>
+      <c r="G115" t="s">
+        <v>306</v>
+      </c>
+      <c r="H115" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
